--- a/PlaywrightTests/CMB/PROD/Catalog_scf_XLSX_u.xlsx
+++ b/PlaywrightTests/CMB/PROD/Catalog_scf_XLSX_u.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://proactis-my.sharepoint.com/personal/wai-ho_leung_proactis_com/Documents/Documents/eCat/Test Data/CM PROD/xlsx R23.4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RegoMarketplace\smoke-auto-cm\PlaywrightTests\CMB\PROD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:4000b_{7BE5815B-3DFD-4CBE-8DA5-9F4D878EAE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C132C598-E66E-4980-AD67-EE01570D53AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DF0FAC-8F41-4176-AE89-0A0C625283B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-195" windowWidth="29040" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="3" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="1585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1585">
   <si>
     <t>La description courte de l'article ne devrait pas contenir d'abréviations inconnues. De plus, le nom de l'article devrait apparaître en premier, suivi des informations d'article les plus pertinentes. Les champs de données ne doivent pas contenir de caractères de contrôle (tabulations, fin de ligne, etc.).</t>
   </si>
@@ -4900,9 +4900,6 @@
     <t>Test Image 4</t>
   </si>
   <si>
-    <t>Methylenchlorid C-H2-Cl2</t>
-  </si>
-  <si>
     <t>55</t>
   </si>
   <si>
@@ -4925,6 +4922,9 @@
   </si>
   <si>
     <t>TestLog2.png</t>
+  </si>
+  <si>
+    <t>Methylenchlorid 134</t>
   </si>
 </sst>
 </file>
@@ -8487,7 +8487,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75"/>
@@ -8773,11 +8773,10 @@
         <v>1189</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D3" s="15" t="str">
-        <f>C3</f>
-        <v>Methylenchlorid C-H2-Cl2</v>
+        <v>1584</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1190</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>1190</v>
@@ -8807,7 +8806,7 @@
         <v>1197</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>1196</v>
@@ -8835,9 +8834,8 @@
       <c r="C4" s="15" t="s">
         <v>1202</v>
       </c>
-      <c r="D4" s="15" t="str">
-        <f t="shared" ref="D4:D10" si="0">C4</f>
-        <v>321</v>
+      <c r="D4" s="15" t="s">
+        <v>1195</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>1190</v>
@@ -8849,7 +8847,7 @@
         <v>1192</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>1194</v>
@@ -8867,7 +8865,7 @@
         <v>1197</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="T4" s="15" t="s">
         <v>1196</v>
@@ -8889,9 +8887,8 @@
       <c r="C5" s="15" t="s">
         <v>1205</v>
       </c>
-      <c r="D5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Ammoniakloesung 25%</v>
+      <c r="D5" s="15" t="s">
+        <v>1205</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>1190</v>
@@ -8943,9 +8940,8 @@
       <c r="C6" s="15" t="s">
         <v>1209</v>
       </c>
-      <c r="D6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Chlorlauge 25%</v>
+      <c r="D6" s="15" t="s">
+        <v>1209</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>1190</v>
@@ -8997,9 +8993,8 @@
       <c r="C7" s="15" t="s">
         <v>1214</v>
       </c>
-      <c r="D7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Natronlauge 45%, technisch</v>
+      <c r="D7" s="15" t="s">
+        <v>1214</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>1190</v>
@@ -9048,9 +9043,8 @@
       <c r="C8" s="15" t="s">
         <v>1484</v>
       </c>
-      <c r="D8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>Natronlauge 40%, technisch</v>
+      <c r="D8" s="15" t="s">
+        <v>1484</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>1190</v>
@@ -9099,9 +9093,8 @@
       <c r="C9" s="15" t="s">
         <v>1222</v>
       </c>
-      <c r="D9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>n-Hexan 95 %</v>
+      <c r="D9" s="15" t="s">
+        <v>1222</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>1195</v>
@@ -9147,9 +9140,8 @@
       <c r="C10" s="15" t="s">
         <v>1222</v>
       </c>
-      <c r="D10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>n-Hexan 95 %</v>
+      <c r="D10" s="15" t="s">
+        <v>1222</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>1195</v>
@@ -9557,10 +9549,10 @@
         <v>1563</v>
       </c>
       <c r="AN6" t="s">
+        <v>1577</v>
+      </c>
+      <c r="AO6" t="s">
         <v>1578</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>1579</v>
       </c>
       <c r="AP6" t="s">
         <v>1574</v>
@@ -9656,13 +9648,13 @@
         <v>1545</v>
       </c>
       <c r="J9" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="L9" s="15" t="s">
         <v>1564</v>
       </c>
       <c r="M9" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="N9" s="15" t="s">
         <v>1565</v>
@@ -9671,7 +9663,7 @@
         <v>1566</v>
       </c>
       <c r="AN9" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>
